--- a/Manage Device.xlsx
+++ b/Manage Device.xlsx
@@ -139,7 +139,7 @@
     <x:t>User should be able to select Select Required Bundle</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 10</x:t>
+    <x:t>Step 9</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Supply Points</x:t>
@@ -547,7 +547,7 @@
     <x:col min="3" max="3" width="15.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="45.700625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="49.550625000000004" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
@@ -780,7 +780,7 @@
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
